--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,15 +247,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="13.64453125" customWidth="true"/>
+    <col min="2" max="2" width="13.24609375" customWidth="true"/>
     <col min="3" max="3" width="13.64453125" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
     <col min="5" max="5" width="15.77734375" customWidth="true"/>
-    <col min="6" max="6" width="15.24609375" customWidth="true"/>
+    <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="14.64453125" customWidth="true"/>
     <col min="8" max="8" width="15.64453125" customWidth="true"/>
     <col min="9" max="9" width="15.24609375" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.33768808239530079</v>
+        <v>0.3382691697889848</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.31797974006432927</v>
+        <v>0.31847718515434692</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.022394022731299246</v>
+        <v>-0.022193744514842628</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0043291447651738367</v>
+        <v>-0.0044195476277621073</v>
       </c>
       <c r="F3" s="0">
-        <v>0.005967981914523861</v>
+        <v>0.0057831392340667613</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0043321840857117088</v>
+        <v>0.0043420106536293879</v>
       </c>
       <c r="H3" s="0">
-        <v>0.00056821838415421061</v>
+        <v>0.00057171514016054873</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.008472442558774813</v>
+        <v>-0.0084944472498538239</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0046188833398865814</v>
+        <v>0.0046188897299639931</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30113964571448354</v>
+        <v>0.30173731108021373</v>
       </c>
       <c r="C4" s="0">
-        <v>0.020236227606908092</v>
+        <v>0.02033080694338605</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00025320917588262965</v>
+        <v>0.00025269409593887363</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00028978318797937865</v>
+        <v>-0.00029649566577227989</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.0016389521425875658</v>
+        <v>-0.0016372944992721398</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.035071336239525401</v>
+        <v>-0.035059528633480025</v>
       </c>
       <c r="J4" s="0">
-        <v>3.4632666030575482e-05</v>
+        <v>3.4062491359409662e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00036409222857469725</v>
+        <v>-0.00036411880629305671</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.30091065449118515</v>
+        <v>0.30341743103782431</v>
       </c>
       <c r="C5" s="0">
-        <v>0.10674073484772235</v>
+        <v>0.11004041876858214</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.1005029440205787</v>
+        <v>-0.10200349762068103</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0099367561757698203</v>
+        <v>0.0099884668650151529</v>
       </c>
       <c r="F5" s="0">
-        <v>0.019040745492191133</v>
+        <v>0.019126148356939127</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.028838646040160336</v>
+        <v>-0.028865740581455079</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.0018415491416242499</v>
+        <v>-0.0018502818701082295</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0013220191166436537</v>
+        <v>-0.0013133033919448273</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0034420694199747692</v>
+        <v>-0.0034420905687366776</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.41096906390417787</v>
+        <v>0.41178232580248525</v>
       </c>
       <c r="C6" s="0">
-        <v>0.13385540177015254</v>
+        <v>0.1322454480736433</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0024014437258563872</v>
+        <v>-0.0024012560666130216</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0016562033410694483</v>
+        <v>0.0016478574349343598</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0017739520290291865</v>
+        <v>0.0017813369260350569</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.025634013979747926</v>
+        <v>-0.025716804365609202</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00080830997834585583</v>
+        <v>0.00080831276227044668</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.4752432372451616</v>
+        <v>0.47401948748409356</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.065852988661733738</v>
+        <v>0.063919909881846468</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.011665098471184701</v>
+        <v>-0.011648171701851361</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.039755813204289454</v>
+        <v>-0.039903461847094479</v>
       </c>
       <c r="G7" s="0">
-        <v>0.012609582953310241</v>
+        <v>0.012652595669346726</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0072673039009290398</v>
+        <v>0.0072510513962788861</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.029965209500484868</v>
+        <v>0.029965238283082063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.014742207726212042</v>
+        <v>0.016682105997810281</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.44672141756696027</v>
+        <v>-0.44372160798633931</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.00096661359445859374</v>
+        <v>0.00096686464219582549</v>
       </c>
       <c r="F8" s="0">
-        <v>0.0083207465618220563</v>
+        <v>0.0083262506783726379</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>0.00024251659150512219</v>
+        <v>0.0002435213623519236</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.023897619473234145</v>
+        <v>-0.023740533943334211</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.00058813077345903908</v>
+        <v>0.00058812376046984971</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.17668856074604899</v>
+        <v>-0.17434666160277135</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.15096247598956014</v>
+        <v>-0.15041650742814283</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.004126933996932358</v>
+        <v>-0.0041350558373981243</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.04919771968601467</v>
+        <v>-0.049253726593805995</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0066651624912813867</v>
+        <v>0.0065615692451461618</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0014223359670288368</v>
+        <v>-0.0014091225465498588</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0045387763601698484</v>
+        <v>0.0045493279172460245</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.003074758315823739</v>
+        <v>0.0030747476429230092</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.19726073587885079</v>
+        <v>0.2050777720855135</v>
       </c>
       <c r="C10" s="0">
-        <v>0.41789254310464308</v>
+        <v>0.42356955622078157</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-3.6168664560637541e-05</v>
+        <v>-3.6170855409240418e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0022848523238210108</v>
+        <v>-0.0022870388537172596</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>9.9310808015761799e-05</v>
+        <v>9.9057756993508402e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>0.026351639385347847</v>
+        <v>0.026122566319662407</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.077383120086511339</v>
+        <v>-0.077353495089592411</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0093099444017860633</v>
+        <v>0.0093099581895662864</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.56256332244491658</v>
+        <v>0.56873975824026202</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23255014917521583</v>
+        <v>0.23119623567611264</v>
       </c>
       <c r="E11" s="0">
-        <v>0.020631153923092015</v>
+        <v>0.020613230429012877</v>
       </c>
       <c r="F11" s="0">
-        <v>0.092317410619995946</v>
+        <v>0.092137080649060316</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0039731269934219684</v>
+        <v>-0.0039900423600668228</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.002395374153579734</v>
+        <v>-0.002404022676222777</v>
       </c>
       <c r="I11" s="0">
-        <v>0.033248668205541537</v>
+        <v>0.03318576089791167</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.0070762942107778226</v>
+        <v>-0.0070762564610593881</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.34341142052686663</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.14797502270743876</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.00023002174826024853</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.00031175312691452534</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.00048367430387965236</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.032137476093859571</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.04465043322956308</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,16 +388,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="13.24609375" customWidth="true"/>
+    <col min="2" max="2" width="14.64453125" customWidth="true"/>
     <col min="3" max="3" width="13.64453125" customWidth="true"/>
-    <col min="4" max="4" width="14.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
+    <col min="4" max="4" width="13.64453125" customWidth="true"/>
+    <col min="5" max="5" width="15.64453125" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="14.64453125" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="15.64453125" customWidth="true"/>
     <col min="9" max="9" width="15.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.1796875" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.3382691697889848</v>
+        <v>0.33705336699536548</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.31847718515434692</v>
+        <v>0.31720824535433978</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.022193744514842628</v>
+        <v>-0.022455334899070457</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0044195476277621073</v>
+        <v>-0.0043765116775153949</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0057831392340667613</v>
+        <v>0.0059072845483947225</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0043420106536293879</v>
+        <v>0.0043594130528493156</v>
       </c>
       <c r="H3" s="0">
-        <v>0.00057171514016054873</v>
+        <v>0.00056901189458329667</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0084944472498538239</v>
+        <v>-0.0084678721934448309</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0046188897299639931</v>
+        <v>0.0046188876331776374</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30173731108021373</v>
+        <v>0.30505454755997863</v>
       </c>
       <c r="C4" s="0">
-        <v>0.02033080694338605</v>
+        <v>0.02486788466357253</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00025269409593887363</v>
+        <v>0.0002527128380973619</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00029649566577227989</v>
+        <v>-0.00029604813552194201</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.0016372944992721398</v>
+        <v>-0.0016265059853848114</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.035059528633480025</v>
+        <v>-0.035021475860660012</v>
       </c>
       <c r="J4" s="0">
-        <v>3.4062491359409662e-05</v>
+        <v>3.3976895315633536e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00036411880629305671</v>
+        <v>-0.00036424220977993027</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.30341743103782431</v>
+        <v>0.30238369879946686</v>
       </c>
       <c r="C5" s="0">
-        <v>0.11004041876858214</v>
+        <v>0.10509985363782699</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.10200349762068103</v>
+        <v>-0.10134809222557233</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0099884668650151529</v>
+        <v>0.0099573689651347962</v>
       </c>
       <c r="F5" s="0">
-        <v>0.019126148356939127</v>
+        <v>0.019196793562622706</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.028865740581455079</v>
+        <v>-0.028997874866386858</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.0018502818701082295</v>
+        <v>-0.0018369844482990414</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0013133033919448273</v>
+        <v>-0.0012998662615019306</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0034420905687366776</v>
+        <v>-0.0034420471243361006</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.41178232580248525</v>
+        <v>0.41308040840485816</v>
       </c>
       <c r="C6" s="0">
-        <v>0.1322454480736433</v>
+        <v>0.13459157241839181</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0024012560666130216</v>
+        <v>-0.0024013261725943516</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0016478574349343598</v>
+        <v>0.0016277891927112867</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0017813369260350569</v>
+        <v>0.001779928314665656</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.025716804365609202</v>
+        <v>-0.025709543521536881</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00080831276227044668</v>
+        <v>0.00080828937375376775</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.47401948748409356</v>
+        <v>0.4746946542428554</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.063919909881846468</v>
+        <v>0.063252006063390778</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.011648171701851361</v>
+        <v>-0.011603100109143219</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.039903461847094479</v>
+        <v>-0.039927252569470321</v>
       </c>
       <c r="G7" s="0">
-        <v>0.012652595669346726</v>
+        <v>0.012684843389561622</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0072510513962788861</v>
+        <v>0.007242533103901919</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.029965238283082063</v>
+        <v>0.029965215959756486</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.016682105997810281</v>
+        <v>0.0047939485958115591</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.44372160798633931</v>
+        <v>-0.4564564118219025</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.00096686464219582549</v>
+        <v>0.0009675302537932068</v>
       </c>
       <c r="F8" s="0">
-        <v>0.0083262506783726379</v>
+        <v>0.0083457981154046595</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>0.0002435213623519236</v>
+        <v>0.00024561745390712109</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.023740533943334211</v>
+        <v>-0.023591424450097591</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.00058812376046984971</v>
+        <v>0.00058818480185129918</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.17434666160277135</v>
+        <v>-0.18568931197803551</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.15041650742814283</v>
+        <v>-0.15010207279974791</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0041350558373981243</v>
+        <v>-0.0041479778349696635</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.049253726593805995</v>
+        <v>-0.049176085415559991</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0065615692451461618</v>
+        <v>0.0067033050748593823</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0014091225465498588</v>
+        <v>-0.0013995304272912967</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0045493279172460245</v>
+        <v>0.0045643615577134547</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0030747476429230092</v>
+        <v>0.0030747392711489574</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.2050777720855135</v>
+        <v>0.19620549938759324</v>
       </c>
       <c r="C10" s="0">
-        <v>0.42356955622078157</v>
+        <v>0.42515814591922513</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-3.6170855409240418e-05</v>
+        <v>-3.6322965404223403e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0022870388537172596</v>
+        <v>-0.0022999989205970714</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>9.9057756993508402e-05</v>
+        <v>9.8604339070898007e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>0.026122566319662407</v>
+        <v>0.026377446996684085</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.077353495089592411</v>
+        <v>-0.076712975755752977</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0093099581895662864</v>
+        <v>0.0093099117524029218</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.56873975824026202</v>
+        <v>0.56415015251023815</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23119623567611264</v>
+        <v>0.23369954396708309</v>
       </c>
       <c r="E11" s="0">
-        <v>0.020613230429012877</v>
+        <v>0.020802700678994424</v>
       </c>
       <c r="F11" s="0">
-        <v>0.092137080649060316</v>
+        <v>0.093084023017864503</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0039900423600668228</v>
+        <v>-0.0039109803986953186</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.002404022676222777</v>
+        <v>-0.0023810710660818139</v>
       </c>
       <c r="I11" s="0">
-        <v>0.03318576089791167</v>
+        <v>0.033726737344410576</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.0070762564610593881</v>
+        <v>-0.007076300420930548</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.34341142052686663</v>
+        <v>0.2854445012469059</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.14797502270743876</v>
+        <v>-0.18029367718733236</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00023002174826024853</v>
+        <v>0.00025529510386943232</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.00031175312691452534</v>
+        <v>-0.0077980821423062393</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.00048367430387965236</v>
+        <v>-0.008403147007956812</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.032137476093859571</v>
+        <v>-0.037783468803998174</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.04465043322956308</v>
+        <v>-0.044682571225608148</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.22799872508286689</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.20316773830148466</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.0370639279690788</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.065972988365538665</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0018013444614697789</v>
+      </c>
+      <c r="H13" s="0">
+        <v>3.3698190853493682e-05</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.0032252877765624674</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.24730123696611694</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.13842559802045809</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.040871678723222338</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.00041514907747583832</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.00053366061854440009</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00078175081362599069</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.048505425919526987</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-2.896353726522527e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,14 +463,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="14.64453125" customWidth="true"/>
-    <col min="3" max="3" width="13.64453125" customWidth="true"/>
+    <col min="3" max="3" width="14.24609375" customWidth="true"/>
     <col min="4" max="4" width="13.64453125" customWidth="true"/>
-    <col min="5" max="5" width="15.64453125" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="15.64453125" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.33705336699536548</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.31720824535433978</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.30505454755997863</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.30238369879946686</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.41308040840485816</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.4746946542428554</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.0047939485958115591</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>-0.18568931197803551</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.19620549938759324</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.56415015251023815</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.2854445012469059</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.22799872508286689</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.13842559802045809</v>
+        <v>0.14214398361371544</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.040871678723222338</v>
+        <v>-0.026743690081898534</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.00041514907747583832</v>
+        <v>-0.00042836390656261596</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.00053366061854440009</v>
+        <v>0.00011035773200797979</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00078175081362599069</v>
+        <v>-0.0051694857090986415</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.048505425919526987</v>
+        <v>-0.042786976470768963</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-2.896353726522527e-05</v>
+        <v>-0.010836583032830693</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.30775511221734403</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.40860295307759459</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.007916779265982124</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.026133813223531303</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.002080101070808161</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.077426836313786496</v>
       </c>
     </row>
   </sheetData>
